--- a/2018ggma_Business Reference Model.xlsx
+++ b/2018ggma_Business Reference Model.xlsx
@@ -12,7 +12,7 @@
     <sheet name="용어비교" sheetId="3" r:id="rId3"/>
     <sheet name="경기문화재단사무관리규정시행규칙내 기록물분류기준 및 보존기" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -32962,7 +32962,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -34385,6 +34385,9 @@
       <c r="E44" s="199"/>
       <c r="F44" s="200" t="s">
         <v>172</v>
+      </c>
+      <c r="G44" s="144">
+        <v>1111</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="144" customFormat="1" ht="14.25">

--- a/2018ggma_Business Reference Model.xlsx
+++ b/2018ggma_Business Reference Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="585" windowWidth="18015" windowHeight="9675" activeTab="1"/>
@@ -12,12 +12,12 @@
     <sheet name="용어비교" sheetId="3" r:id="rId3"/>
     <sheet name="경기문화재단사무관리규정시행규칙내 기록물분류기준 및 보존기" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="337">
   <si>
     <t>기록관리기준표</t>
   </si>
@@ -1102,6 +1102,21 @@
     </r>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dcddd</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1963,7 +1978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2453,6 +2468,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="메모" xfId="1" builtinId="10"/>
@@ -32962,7 +32978,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -34205,6 +34221,9 @@
       <c r="E37" s="199"/>
       <c r="F37" s="200" t="s">
         <v>155</v>
+      </c>
+      <c r="J37" s="235" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:28" s="144" customFormat="1" ht="14.25">

--- a/2018ggma_Business Reference Model.xlsx
+++ b/2018ggma_Business Reference Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="585" windowWidth="18015" windowHeight="9675" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="338">
   <si>
     <t>기록관리기준표</t>
   </si>
@@ -1114,6 +1114,21 @@
         <family val="2"/>
       </rPr>
       <t>dcddd</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sssss</t>
     </r>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -32975,10 +32990,10 @@
   <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -34221,6 +34236,9 @@
       <c r="E37" s="199"/>
       <c r="F37" s="200" t="s">
         <v>155</v>
+      </c>
+      <c r="G37" s="235" t="s">
+        <v>337</v>
       </c>
       <c r="J37" s="235" t="s">
         <v>336</v>

--- a/2018ggma_Business Reference Model.xlsx
+++ b/2018ggma_Business Reference Model.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="339">
   <si>
     <t>기록관리기준표</t>
   </si>
@@ -1129,6 +1129,21 @@
         <family val="2"/>
       </rPr>
       <t>sssss</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mmmmm</t>
     </r>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -32993,7 +33008,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -34406,6 +34421,9 @@
       <c r="E43" s="199"/>
       <c r="F43" s="200" t="s">
         <v>172</v>
+      </c>
+      <c r="H43" s="235" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:28" s="144" customFormat="1" ht="14.25">

--- a/2018ggma_Business Reference Model.xlsx
+++ b/2018ggma_Business Reference Model.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="336">
   <si>
     <t>기록관리기준표</t>
   </si>
@@ -1099,51 +1099,6 @@
         <charset val="129"/>
       </rPr>
       <t>설치</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dcddd</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sssss</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>mmmmm</t>
     </r>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -33008,7 +32963,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -34252,12 +34207,8 @@
       <c r="F37" s="200" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="235" t="s">
-        <v>337</v>
-      </c>
-      <c r="J37" s="235" t="s">
-        <v>336</v>
-      </c>
+      <c r="G37" s="235"/>
+      <c r="J37" s="235"/>
     </row>
     <row r="38" spans="1:28" s="144" customFormat="1" ht="14.25">
       <c r="A38" s="195" t="s">
@@ -34422,9 +34373,7 @@
       <c r="F43" s="200" t="s">
         <v>172</v>
       </c>
-      <c r="H43" s="235" t="s">
-        <v>338</v>
-      </c>
+      <c r="H43" s="235"/>
     </row>
     <row r="44" spans="1:28" s="144" customFormat="1" ht="14.25">
       <c r="A44" s="195" t="s">
